--- a/data/trans_media/Q57-Habitat-trans_media.xlsx
+++ b/data/trans_media/Q57-Habitat-trans_media.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,16; 7,81</t>
+          <t>7,19; 7,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,67; 8,34</t>
+          <t>7,65; 8,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,08; 7,75</t>
+          <t>7,12; 7,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,74; 8,23</t>
+          <t>7,73; 8,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,26; 7,7</t>
+          <t>7,27; 7,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,77; 8,18</t>
+          <t>7,79; 8,22</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,55; 7,83</t>
+          <t>7,54; 7,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,74; 8,07</t>
+          <t>7,73; 8,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,23; 7,56</t>
+          <t>7,25; 7,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,65; 7,91</t>
+          <t>7,65; 7,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,44; 7,65</t>
+          <t>7,43; 7,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,74; 7,94</t>
+          <t>7,74; 7,93</t>
         </is>
       </c>
     </row>
@@ -799,27 +799,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,51; 7,71</t>
+          <t>7,52; 7,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,1; 8,36</t>
+          <t>8,1; 8,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,32; 7,53</t>
+          <t>7,3; 7,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,76; 7,95</t>
+          <t>7,74; 7,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,44; 7,59</t>
+          <t>7,44; 7,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -884,22 +884,22 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,36; 8,61</t>
+          <t>8,37; 8,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,46; 7,68</t>
+          <t>7,45; 7,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,77; 8,34</t>
+          <t>7,76; 8,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,56; 7,72</t>
+          <t>7,57; 7,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -959,12 +959,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,64; 7,85</t>
+          <t>7,64; 7,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,81; 8,03</t>
+          <t>7,8; 8,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,6; 7,82</t>
+          <t>7,61; 7,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,74; 7,89</t>
+          <t>7,73; 7,89</t>
         </is>
       </c>
     </row>
@@ -1049,17 +1049,17 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,39; 7,51</t>
+          <t>7,39; 7,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,78; 7,93</t>
+          <t>7,79; 7,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,52; 7,6</t>
+          <t>7,53; 7,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">

--- a/data/trans_media/Q57-Habitat-trans_media.xlsx
+++ b/data/trans_media/Q57-Habitat-trans_media.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,19; 7,82</t>
+          <t>7,2; 7,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,12; 7,79</t>
+          <t>7,04; 7,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,27; 7,71</t>
+          <t>7,24; 7,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,25; 7,56</t>
+          <t>7,24; 7,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,43; 7,64</t>
+          <t>7,44; 7,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -751,7 +751,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,3; 7,52</t>
+          <t>7,3; 7,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,44; 7,6</t>
+          <t>7,44; 7,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,63; 7,83</t>
+          <t>7,62; 7,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,57; 7,73</t>
+          <t>7,57; 7,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,64; 7,86</t>
+          <t>7,64; 7,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,31; 7,53</t>
+          <t>7,3; 7,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,49; 7,65</t>
+          <t>7,5; 7,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,39; 7,5</t>
+          <t>7,39; 7,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,53; 7,61</t>
+          <t>7,52; 7,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
